--- a/Assets/Resources/Datas/DialogDB.xlsx
+++ b/Assets/Resources/Datas/DialogDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardHard\UnityProject\Creative\Assets\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardHard\UnityProject\Creative\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,31 +50,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안녕하세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저는 리오라입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지금은 텍스트 출력 테스트중이에요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>잘부탁드립니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>벨라리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 저는 벨라리스입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리오라를 도와 테스트를 함께하고있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼을 진행한다.
+튜토리얼을 넘긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리오라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리오라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주관자님, 드디어 깨어나셨군요! 몸은 괜찮으세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일동안 쓰러져 계셨어요. 엑솔라르의 첫 공격이 있었을 때, 주관자님은 큰 피해를 입으셨죠. 다행히 회복하셨지만, 현재 모든 도시의 관리자들이 모두 행방불명이에요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialStart
+TutorialSkip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,12 +140,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,15 +432,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="154.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -449,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -460,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -471,40 +484,40 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Datas/DialogDB.xlsx
+++ b/Assets/Resources/Datas/DialogDB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,11 +54,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잘부탁드립니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리오라를 도와 테스트를 함께하고있습니다.</t>
+    <t>주관자님, 드디어 깨어나셨군요! 몸은 괜찮으세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialStart
+TutorialSkip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,16 +76,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주관자님, 드디어 깨어나셨군요! 몸은 괜찮으세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3일동안 쓰러져 계셨어요. 엑솔라르의 첫 공격이 있었을 때, 주관자님은 큰 피해를 입으셨죠. 다행히 회복하셨지만, 현재 모든 도시의 관리자들이 모두 행방불명이에요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TutorialStart
-TutorialSkip</t>
+    <t>모두 기억하고 계셔서 다행이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 어서 본론으로 들어갈게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리오라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 기억에 문제가 생기셨군요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 기억날 수 있도록 도울게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리오라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주관자님께선 3일동안 쓰러져 계셨어요. 엑솔라르의 첫 공격이 있었을 때, 주관자님은 큰 피해를 입으셨죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다행히 회복하셨지만, 현재 모든 도시의 관리자들이 모두 행방불명이에요..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,17 +450,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="154.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="167.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -456,18 +476,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -478,46 +498,79 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1001</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
